--- a/论坛/验收标准.xlsx
+++ b/论坛/验收标准.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/百度云同步盘/python/班级/1905/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="645" yWindow="1185" windowWidth="19440" windowHeight="12240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="144525" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <r>
       <t>首页（</t>
@@ -318,12 +313,16 @@
   <si>
     <t>数据库设计</t>
   </si>
+  <si>
+    <t>李逸飞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -505,7 +504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,7 +539,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -717,7 +716,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -725,15 +724,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:51" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" ht="15.75" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -800,7 +799,7 @@
       <c r="AX1" s="7"/>
       <c r="AY1" s="1"/>
     </row>
-    <row r="2" spans="1:51" ht="43" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" ht="43.5" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -951,7 +950,7 @@
       </c>
       <c r="AY2" s="1"/>
     </row>
-    <row r="3" spans="1:51" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" ht="15" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5">
         <v>2</v>
@@ -1103,6 +1102,11 @@
       <c r="AY3" s="4">
         <f>SUM(B3:AX3)</f>
         <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51">
+      <c r="A4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1129,5 +1133,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>